--- a/medicine/Psychotrope/Chronologie_de_l'Oktoberfest/Chronologie_de_l'Oktoberfest.xlsx
+++ b/medicine/Psychotrope/Chronologie_de_l'Oktoberfest/Chronologie_de_l'Oktoberfest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Oktoberfest a été marquée depuis ses débuts en 1810 par un certain nombre de changements et d'événements marquant. Cet article tente d'en faire un résumé année par année sous la forme d'un tableau. La monarchie bavaroise disparaissant en 1918, la présence du roi n'est plus précisée à partir de cette date.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Légende</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Landwirtschaftsfest = ZLF
 Hauptsonntag = (h), signale que le nombre de visiteurs indiqué ne concerne que le
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -578,7 +596,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,6 +615,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,7 +624,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,6 +643,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -630,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -649,6 +671,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -656,7 +680,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -675,6 +699,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -682,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -701,6 +727,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -708,7 +736,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -727,6 +755,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -734,7 +764,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -753,6 +783,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -760,7 +792,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -779,6 +811,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -786,7 +820,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -805,6 +839,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -812,7 +848,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -831,6 +867,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -838,7 +876,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -857,6 +895,8 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -864,7 +904,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -883,6 +923,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -890,7 +932,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -909,6 +951,8 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -916,7 +960,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -935,6 +979,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -942,7 +988,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -961,6 +1007,8 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -968,7 +1016,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -987,6 +1035,8 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -994,7 +1044,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1013,6 +1063,8 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1020,7 +1072,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chronologie_de_l%27Oktoberfest</t>
+          <t>Chronologie_de_l'Oktoberfest</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1039,6 +1091,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
